--- a/data/long_dif/P50-Urba-long_dif.xlsx
+++ b/data/long_dif/P50-Urba-long_dif.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +589,62 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -627,52 +675,82 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>30,1%</t>
+          <t>30,82%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>25,84%</t>
+          <t>26,42%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>25,87%</t>
+          <t>25,55%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>27,55%</t>
+          <t>34,31%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>26,71%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>27,66%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
           <t>24,43%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>24,82%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>28,77%</t>
-        </is>
-      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>25,11%</t>
+          <t>24,83%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>25,33%</t>
+          <t>24,49%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>24,68%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>29,17%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>25,39%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>25,18%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>29,16%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>25,66%</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>26,12; 34,77</t>
+          <t>26,59; 35,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>21,65; 33,17</t>
+          <t>21,47; 33,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>22,11; 31,05</t>
+          <t>21,37; 30,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>23,68; 31,33</t>
+          <t>27,4; 47,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>20,65; 28,56</t>
+          <t>21,53; 33,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>21,67; 28,66</t>
+          <t>24,1; 31,82</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>25,94; 31,97</t>
+          <t>20,76; 28,44</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>22,15; 28,65</t>
+          <t>21,51; 28,56</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>22,61; 28,62</t>
+          <t>19,73; 28,82</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>20,75; 28,93</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>26,12; 32,25</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>22,55; 29,78</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>22,53; 28,2</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>25,14; 35,52</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>22,26; 29,23</t>
         </is>
       </c>
     </row>
@@ -733,52 +841,82 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>46,16%</t>
+          <t>46,03%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>49,86%</t>
+          <t>49,59%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>48,88%</t>
+          <t>48,77%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>50,88%</t>
+          <t>37,75%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>47,14%</t>
+          <t>40,59%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>51,25%</t>
+          <t>50,58%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>48,62%</t>
+          <t>47,35%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>48,45%</t>
+          <t>51,24%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>50,1%</t>
+          <t>46,27%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>42,91%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>48,41%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>48,43%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>50,06%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>42,22%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>41,79%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>40,79; 51,59</t>
+          <t>41,13; 51,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>43,45; 55,0</t>
+          <t>43,52; 55,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>43,18; 53,57</t>
+          <t>42,87; 53,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>46,56; 55,42</t>
+          <t>30,49; 43,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>42,43; 51,61</t>
+          <t>34,16; 46,1</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>46,97; 55,2</t>
+          <t>46,24; 54,82</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>44,76; 52,11</t>
+          <t>43,11; 52,53</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>44,97; 52,31</t>
+          <t>47,71; 55,33</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>46,81; 53,48</t>
+          <t>41,56; 51,3</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>37,81; 48,17</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>45,12; 51,98</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>44,75; 51,73</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>46,67; 53,1</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>38,13; 46,51</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>37,94; 45,98</t>
         </is>
       </c>
     </row>
@@ -839,52 +1007,82 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>23,74%</t>
+          <t>23,15%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>24,3%</t>
+          <t>23,99%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>25,25%</t>
+          <t>25,68%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>21,57%</t>
+          <t>27,94%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>28,44%</t>
+          <t>32,7%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>23,93%</t>
+          <t>21,76%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>22,61%</t>
+          <t>28,22%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>26,44%</t>
+          <t>23,92%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>24,57%</t>
+          <t>29,25%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>32,41%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>22,42%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>26,18%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>24,77%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>28,63%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>32,55%</t>
         </is>
       </c>
     </row>
@@ -897,104 +1095,160 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>19,01; 30,34</t>
+          <t>18,76; 29,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>19,85; 28,75</t>
+          <t>19,8; 29,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>21,11; 31,49</t>
+          <t>21,4; 33,6</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>18,17; 25,56</t>
+          <t>21,94; 33,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>24,51; 32,79</t>
+          <t>27,72; 38,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>20,42; 27,41</t>
+          <t>18,42; 25,78</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>19,64; 25,94</t>
+          <t>24,54; 32,19</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>23,58; 29,65</t>
+          <t>20,66; 27,53</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>21,7; 28,5</t>
+          <t>24,89; 34,51</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>28,03; 38,16</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>19,67; 26,06</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>23,6; 29,48</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>22,12; 28,63</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>25,13; 32,22</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>28,92; 36,35</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>35,34%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>24,16%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>28,84%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>33,22%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>22,09%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>30,36%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>34,28%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>23,12%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>29,6%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1007,100 +1261,164 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>29,11; 44,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,12; 30,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>23,84; 34,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>28,91; 38,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>17,99; 27,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>26,28; 34,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>30,55; 39,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>20,0; 26,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>26,62; 33,08</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>41,86%</t>
+          <t>32,96%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>41,39%</t>
+          <t>24,29%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>48,04%</t>
+          <t>29,15%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>41,98%</t>
+          <t>26,52%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>44,83%</t>
+          <t>26,98%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>44,19%</t>
+          <t>34,16%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>41,92%</t>
+          <t>22,55%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>43,12%</t>
+          <t>30,25%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>46,12%</t>
+          <t>25,49%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>30,36%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>33,56%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>23,42%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>29,7%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>26,01%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>28,54%</t>
         </is>
       </c>
     </row>
@@ -1113,47 +1431,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>35,97; 48,38</t>
+          <t>27,88; 39,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>35,25; 47,61</t>
+          <t>19,12; 29,95</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>42,27; 53,76</t>
+          <t>24,3; 34,36</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>36,84; 47,19</t>
+          <t>20,72; 34,56</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>39,66; 50,76</t>
+          <t>17,63; 36,01</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>39,6; 48,95</t>
+          <t>29,33; 39,19</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>37,7; 46,1</t>
+          <t>18,28; 27,78</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>39,12; 47,3</t>
+          <t>26,03; 34,18</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>42,06; 49,41</t>
+          <t>20,93; 30,01</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>21,71; 40,16</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>30,03; 37,71</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>19,94; 27,38</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>26,68; 33,45</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>22,11; 30,69</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>22,2; 35,4</t>
         </is>
       </c>
     </row>
@@ -1161,52 +1509,82 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>22,8%</t>
+          <t>43,34%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>34,45%</t>
+          <t>42,21%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>23,12%</t>
+          <t>47,67%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>24,8%</t>
+          <t>44,36%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>33,08%</t>
+          <t>31,95%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>25,45%</t>
+          <t>41,92%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>23,8%</t>
+          <t>44,1%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>33,76%</t>
+          <t>44,08%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>24,28%</t>
+          <t>37,92%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>41,25%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>42,63%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>43,16%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>45,88%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>41,17%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>36,25%</t>
         </is>
       </c>
     </row>
@@ -1219,104 +1597,160 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>17,51; 28,02</t>
+          <t>37,41; 48,94</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>28,04; 42,49</t>
+          <t>36,1; 48,27</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>19,1; 28,28</t>
+          <t>42,05; 53,55</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>20,54; 29,86</t>
+          <t>37,42; 51,21</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>28,24; 38,16</t>
+          <t>21,24; 41,11</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>21,34; 29,84</t>
+          <t>37,17; 47,38</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>20,44; 27,63</t>
+          <t>38,49; 49,53</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>29,86; 38,15</t>
+          <t>39,4; 48,83</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>21,35; 27,48</t>
+          <t>32,73; 43,45</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>31,75; 53,89</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>38,97; 46,75</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>39,08; 47,26</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>42,36; 49,67</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>37,05; 45,76</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>28,53; 42,87</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>32,62%</t>
+          <t>23,7%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>22,3%</t>
+          <t>33,5%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>20,81%</t>
+          <t>23,18%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>27,7%</t>
+          <t>29,12%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>30,1%</t>
+          <t>41,07%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>30,48%</t>
+          <t>23,92%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>30,22%</t>
+          <t>33,35%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>26,14%</t>
+          <t>25,67%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>25,58%</t>
+          <t>36,6%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>28,4%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>23,81%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>33,43%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>24,43%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>32,82%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>35,21%</t>
         </is>
       </c>
     </row>
@@ -1329,47 +1763,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>22,02; 50,29</t>
+          <t>19,03; 29,35</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>14,11; 32,89</t>
+          <t>28,19; 40,82</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>13,43; 29,89</t>
+          <t>19,18; 28,68</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>19,74; 37,77</t>
+          <t>22,86; 35,14</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>21,89; 39,93</t>
+          <t>30,49; 60,93</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>22,7; 39,54</t>
+          <t>19,65; 28,36</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>23,06; 40,0</t>
+          <t>28,6; 38,6</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>19,66; 33,6</t>
+          <t>21,97; 30,45</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>20,22; 31,87</t>
+          <t>31,44; 43,2</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>19,41; 37,62</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>20,63; 27,09</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>29,5; 37,55</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>21,09; 27,61</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>28,53; 37,33</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>28,14; 45,77</t>
         </is>
       </c>
     </row>
@@ -1377,52 +1841,82 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>45,9%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>42,45%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>53,31%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>48,44%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>32,01%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>42,88%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>47,14%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>37,32%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>48,17%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1435,100 +1929,164 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>32,6; 58,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>31,35; 54,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>42,47; 62,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>39,35; 58,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>23,46; 41,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>34,37; 51,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>38,2; 55,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>30,07; 45,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>41,4; 55,4</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>21,48%</t>
+          <t>35,08%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>35,25%</t>
+          <t>20,92%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>25,87%</t>
+          <t>21,19%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>23,86%</t>
+          <t>35,17%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>37,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>26,64%</t>
+          <t>29,15%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>22,64%</t>
+          <t>30,29%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>36,55%</t>
+          <t>30,35%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>26,25%</t>
+          <t>26,54%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>32,19%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>25,53%</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>25,71%</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>30,97%</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1541,104 +2099,160 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>12,87; 36,43</t>
+          <t>24,33; 54,66</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>23,75; 49,61</t>
+          <t>12,28; 30,71</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>17,6; 40,12</t>
+          <t>13,9; 30,15</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>16,59; 32,71</t>
+          <t>20,4; 57,42</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>28,36; 48,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>19,15; 35,04</t>
+          <t>20,91; 38,12</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>16,8; 30,73</t>
+          <t>21,98; 39,54</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>28,82; 44,86</t>
+          <t>22,61; 38,99</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>20,51; 33,47</t>
+          <t>17,34; 39,4</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>24,85; 44,05</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>19,32; 32,65</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>20,51; 32,17</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>21,83; 45,45</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>32,53%</t>
+          <t>44,79%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>24,73%</t>
+          <t>41,86%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>26,45%</t>
+          <t>54,16%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>29,77%</t>
+          <t>40,58%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>24,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>27,61%</t>
+          <t>45,95%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>31,13%</t>
+          <t>32,59%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>24,45%</t>
+          <t>43,57%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>27,04%</t>
+          <t>38,71%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>45,35%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>37,3%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>48,94%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>39,67%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1651,47 +2265,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>29,23; 37,25</t>
+          <t>31,6; 56,62</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>21,58; 28,88</t>
+          <t>30,37; 53,39</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>23,35; 29,82</t>
+          <t>43,2; 63,83</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>27,1; 33,07</t>
+          <t>24,88; 56,64</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>21,32; 27,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>25,2; 30,34</t>
+          <t>37,34; 55,26</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>28,74; 33,84</t>
+          <t>23,71; 41,86</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>22,2; 26,77</t>
+          <t>34,11; 52,76</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>24,95; 29,05</t>
+          <t>28,12; 49,44</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>37,57; 53,66</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>30,32; 44,77</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>41,73; 55,78</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>29,85; 49,79</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1699,52 +2343,82 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>44,38%</t>
+          <t>20,14%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>45,57%</t>
+          <t>37,22%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>49,08%</t>
+          <t>24,65%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>47,13%</t>
+          <t>24,26%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>44,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>47,56%</t>
+          <t>24,9%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>45,78%</t>
+          <t>37,13%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>45,02%</t>
+          <t>26,08%</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>48,31%</t>
+          <t>34,75%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>22,46%</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>37,17%</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>25,35%</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>29,37%</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1757,47 +2431,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>39,59; 47,75</t>
+          <t>11,07; 29,34</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>41,27; 49,74</t>
+          <t>25,32; 53,36</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>45,55; 52,33</t>
+          <t>15,63; 36,86</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>43,86; 50,21</t>
+          <t>13,34; 39,08</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>41,43; 47,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>44,72; 50,55</t>
+          <t>16,95; 33,72</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>43,07; 48,07</t>
+          <t>27,42; 47,06</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>42,28; 47,57</t>
+          <t>19,14; 34,56</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>45,76; 50,56</t>
+          <t>25,33; 46,65</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>16,43; 28,98</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>29,52; 46,38</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>19,21; 32,58</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>20,65; 37,1</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1805,52 +2509,82 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>23,08%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>29,7%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>24,47%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>23,09%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>31,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>24,83%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>23,09%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>30,53%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>24,65%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1863,60 +2597,765 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>19,8; 26,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>26,02; 34,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>21,37; 28,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>20,23; 25,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>28,37; 34,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>22,39; 27,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>21,13; 25,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>28,18; 33,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>22,79; 27,2</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>32,21%</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>24,89%</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>26,47%</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>31,28%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>26,77%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>30,37%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>24,38%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>27,55%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>25,1%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>25,86%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>31,27%</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>24,63%</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>27,02%</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>28,13%</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>26,31%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>29,01; 36,49</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>21,58; 29,31</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>23,61; 29,69</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>26,58; 38,19</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>22,2; 31,7</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>27,54; 33,24</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>21,57; 27,39</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>25,11; 30,07</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>22,14; 28,56</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>22,29; 30,12</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>29,09; 33,63</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>22,14; 27,04</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>24,99; 29,21</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>25,67; 32,32</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>23,28; 29,65</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>44,78%</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>45,69%</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>48,98%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>40,76%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>38,47%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>46,68%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>44,38%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>47,61%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>42,22%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>42,57%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>45,75%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>45,03%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>48,28%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>41,5%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>40,53%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>40,48; 48,03</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>41,53; 50,07</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>45,02; 52,52</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>35,61; 45,31</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>32,95; 43,78</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>43,77; 49,92</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>41,34; 47,63</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>44,75; 50,48</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>38,63; 45,88</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>38,12; 47,38</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>43,03; 47,95</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>42,53; 47,85</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>46,02; 50,69</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>38,35; 43,92</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>37,18; 43,86</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>23,0%</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>29,41%</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>24,56%</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>27,96%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>34,76%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>22,96%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>31,24%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>24,84%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>32,68%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>31,57%</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>22,98%</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>30,34%</t>
+        </is>
+      </c>
+      <c r="O32" s="2" t="inlineStr">
+        <is>
+          <t>24,7%</t>
+        </is>
+      </c>
+      <c r="P32" s="2" t="inlineStr">
+        <is>
+          <t>30,36%</t>
+        </is>
+      </c>
+      <c r="Q32" s="2" t="inlineStr">
+        <is>
+          <t>33,16%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>19,85; 26,79</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>25,89; 33,65</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>21,51; 28,55</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>24,1; 32,0</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>29,65; 41,14</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>20,44; 25,88</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>28,26; 34,3</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>22,43; 27,58</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>29,16; 35,79</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>27,37; 36,0</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>20,93; 25,22</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>28,0; 33,03</t>
+        </is>
+      </c>
+      <c r="O33" s="2" t="inlineStr">
+        <is>
+          <t>22,74; 27,02</t>
+        </is>
+      </c>
+      <c r="P33" s="2" t="inlineStr">
+        <is>
+          <t>27,62; 32,97</t>
+        </is>
+      </c>
+      <c r="Q33" s="2" t="inlineStr">
+        <is>
+          <t>29,7; 37,07</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_dif/P50-Urba-long_dif.xlsx
+++ b/data/long_dif/P50-Urba-long_dif.xlsx
@@ -680,7 +680,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -839,7 +839,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -998,7 +998,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -1161,7 +1161,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1320,7 +1320,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1479,7 +1479,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1783,7 +1783,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1924,7 +1924,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -2069,7 +2069,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -2228,7 +2228,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -2387,7 +2387,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
